--- a/Data/testDataRomania - Copy (10).xlsx
+++ b/Data/testDataRomania - Copy (10).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C350ECAF-CD5C-4A47-AF55-3442B509D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A393890-E586-4138-AFA8-FD36820B721F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,6 @@
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1208,7 +1207,7 @@
   <dimension ref="A1:CD32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.65" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
@@ -1578,7 +1577,7 @@
       </c>
       <c r="K2" s="13" t="str">
         <f t="shared" ref="K2:K16" ca="1" si="0">TEXT(TODAY()-100,"DD/MM/YYYY")</f>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>81</v>
@@ -1615,7 +1614,7 @@
       </c>
       <c r="W2" s="13" t="str">
         <f t="shared" ref="W2:W16" ca="1" si="1">TEXT(TODAY()-100,"DD/MM/YYYY")</f>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X2" s="12" t="s">
         <v>92</v>
@@ -1685,7 +1684,7 @@
       </c>
       <c r="AT2" s="25" t="str">
         <f t="shared" ref="AT2:AT16" ca="1" si="2">TEXT(TODAY()-100,"DD/MM/YYYY")</f>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU2" s="10" t="s">
         <v>100</v>
@@ -1701,11 +1700,11 @@
       </c>
       <c r="AY2" s="13" t="str">
         <f t="shared" ref="AY2:AZ16" ca="1" si="3">TEXT(TODAY()-100,"DD/MM/YYYY")</f>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ2" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA2" s="22" t="str">
         <f t="shared" ref="BA2:BA16" si="4">AH2</f>
@@ -1832,7 +1831,7 @@
       </c>
       <c r="K3" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L3" s="29" t="s">
         <v>81</v>
@@ -1869,7 +1868,7 @@
       </c>
       <c r="W3" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X3" s="12" t="s">
         <v>92</v>
@@ -1903,7 +1902,7 @@
       </c>
       <c r="AH3" s="22">
         <f ca="1">W3+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI3" s="12" t="s">
         <v>101</v>
@@ -1940,7 +1939,7 @@
       </c>
       <c r="AT3" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU3" s="10" t="s">
         <v>100</v>
@@ -1956,15 +1955,15 @@
       </c>
       <c r="AY3" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ3" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA3" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB3" s="26" t="s">
         <v>81</v>
@@ -2087,7 +2086,7 @@
       </c>
       <c r="K4" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L4" s="10" t="s">
         <v>81</v>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="W4" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X4" s="12" t="s">
         <v>92</v>
@@ -2158,7 +2157,7 @@
       </c>
       <c r="AH4" s="22">
         <f ca="1">W4+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI4" s="12" t="s">
         <v>101</v>
@@ -2195,7 +2194,7 @@
       </c>
       <c r="AT4" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU4" s="10" t="s">
         <v>100</v>
@@ -2211,15 +2210,15 @@
       </c>
       <c r="AY4" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ4" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA4" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB4" s="26" t="s">
         <v>81</v>
@@ -2342,7 +2341,7 @@
       </c>
       <c r="K5" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L5" s="29" t="s">
         <v>81</v>
@@ -2379,7 +2378,7 @@
       </c>
       <c r="W5" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X5" s="12" t="s">
         <v>92</v>
@@ -2413,7 +2412,7 @@
       </c>
       <c r="AH5" s="22">
         <f ca="1">W5+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI5" s="12" t="s">
         <v>101</v>
@@ -2450,7 +2449,7 @@
       </c>
       <c r="AT5" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU5" s="10" t="s">
         <v>100</v>
@@ -2466,15 +2465,15 @@
       </c>
       <c r="AY5" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ5" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA5" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB5" s="26" t="s">
         <v>81</v>
@@ -2597,7 +2596,7 @@
       </c>
       <c r="K6" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>81</v>
@@ -2634,7 +2633,7 @@
       </c>
       <c r="W6" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X6" s="12" t="s">
         <v>92</v>
@@ -2704,7 +2703,7 @@
       </c>
       <c r="AT6" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU6" s="10" t="s">
         <v>100</v>
@@ -2720,11 +2719,11 @@
       </c>
       <c r="AY6" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ6" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA6" s="22" t="str">
         <f t="shared" si="4"/>
@@ -2851,7 +2850,7 @@
       </c>
       <c r="K7" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>81</v>
@@ -2888,7 +2887,7 @@
       </c>
       <c r="W7" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X7" s="12" t="s">
         <v>92</v>
@@ -2922,7 +2921,7 @@
       </c>
       <c r="AH7" s="22">
         <f ca="1">W7+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI7" s="12" t="s">
         <v>101</v>
@@ -2959,7 +2958,7 @@
       </c>
       <c r="AT7" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU7" s="10" t="s">
         <v>100</v>
@@ -2975,15 +2974,15 @@
       </c>
       <c r="AY7" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ7" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA7" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB7" s="26" t="s">
         <v>81</v>
@@ -3106,7 +3105,7 @@
       </c>
       <c r="K8" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>81</v>
@@ -3143,7 +3142,7 @@
       </c>
       <c r="W8" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X8" s="12" t="s">
         <v>92</v>
@@ -3213,7 +3212,7 @@
       </c>
       <c r="AT8" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU8" s="10" t="s">
         <v>100</v>
@@ -3229,11 +3228,11 @@
       </c>
       <c r="AY8" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ8" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA8" s="22" t="str">
         <f t="shared" si="4"/>
@@ -3360,7 +3359,7 @@
       </c>
       <c r="K9" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L9" s="29" t="s">
         <v>81</v>
@@ -3397,7 +3396,7 @@
       </c>
       <c r="W9" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X9" s="12" t="s">
         <v>92</v>
@@ -3431,7 +3430,7 @@
       </c>
       <c r="AH9" s="22">
         <f ca="1">W9+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI9" s="12" t="s">
         <v>101</v>
@@ -3468,7 +3467,7 @@
       </c>
       <c r="AT9" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU9" s="10" t="s">
         <v>100</v>
@@ -3484,15 +3483,15 @@
       </c>
       <c r="AY9" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ9" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA9" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB9" s="26" t="s">
         <v>81</v>
@@ -3615,7 +3614,7 @@
       </c>
       <c r="K10" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>81</v>
@@ -3652,7 +3651,7 @@
       </c>
       <c r="W10" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X10" s="12" t="s">
         <v>92</v>
@@ -3722,7 +3721,7 @@
       </c>
       <c r="AT10" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU10" s="10" t="s">
         <v>100</v>
@@ -3738,11 +3737,11 @@
       </c>
       <c r="AY10" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ10" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA10" s="22" t="str">
         <f t="shared" si="4"/>
@@ -3869,7 +3868,7 @@
       </c>
       <c r="K11" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L11" s="29" t="s">
         <v>81</v>
@@ -3906,7 +3905,7 @@
       </c>
       <c r="W11" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X11" s="12" t="s">
         <v>92</v>
@@ -3940,7 +3939,7 @@
       </c>
       <c r="AH11" s="22">
         <f ca="1">W11+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI11" s="12" t="s">
         <v>101</v>
@@ -3977,7 +3976,7 @@
       </c>
       <c r="AT11" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU11" s="10" t="s">
         <v>100</v>
@@ -3993,15 +3992,15 @@
       </c>
       <c r="AY11" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ11" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA11" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB11" s="26" t="s">
         <v>81</v>
@@ -4124,7 +4123,7 @@
       </c>
       <c r="K12" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>81</v>
@@ -4161,7 +4160,7 @@
       </c>
       <c r="W12" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X12" s="12" t="s">
         <v>92</v>
@@ -4231,7 +4230,7 @@
       </c>
       <c r="AT12" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU12" s="10" t="s">
         <v>100</v>
@@ -4247,11 +4246,11 @@
       </c>
       <c r="AY12" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ12" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA12" s="22" t="str">
         <f t="shared" si="4"/>
@@ -4378,7 +4377,7 @@
       </c>
       <c r="K13" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>81</v>
@@ -4415,7 +4414,7 @@
       </c>
       <c r="W13" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X13" s="12" t="s">
         <v>92</v>
@@ -4449,7 +4448,7 @@
       </c>
       <c r="AH13" s="22">
         <f ca="1">W13+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI13" s="12" t="s">
         <v>101</v>
@@ -4486,7 +4485,7 @@
       </c>
       <c r="AT13" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU13" s="10" t="s">
         <v>100</v>
@@ -4502,15 +4501,15 @@
       </c>
       <c r="AY13" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ13" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA13" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB13" s="26" t="s">
         <v>81</v>
@@ -4633,7 +4632,7 @@
       </c>
       <c r="K14" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>81</v>
@@ -4670,7 +4669,7 @@
       </c>
       <c r="W14" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X14" s="12" t="s">
         <v>92</v>
@@ -4740,7 +4739,7 @@
       </c>
       <c r="AT14" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU14" s="10" t="s">
         <v>100</v>
@@ -4756,11 +4755,11 @@
       </c>
       <c r="AY14" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ14" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA14" s="22" t="str">
         <f t="shared" si="4"/>
@@ -4887,7 +4886,7 @@
       </c>
       <c r="K15" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>81</v>
@@ -4924,7 +4923,7 @@
       </c>
       <c r="W15" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X15" s="12" t="s">
         <v>92</v>
@@ -4994,7 +4993,7 @@
       </c>
       <c r="AT15" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU15" s="10" t="s">
         <v>100</v>
@@ -5010,11 +5009,11 @@
       </c>
       <c r="AY15" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ15" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA15" s="22" t="str">
         <f t="shared" si="4"/>
@@ -5141,7 +5140,7 @@
       </c>
       <c r="K16" s="13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>81</v>
@@ -5178,7 +5177,7 @@
       </c>
       <c r="W16" s="13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="X16" s="12" t="s">
         <v>92</v>
@@ -5212,7 +5211,7 @@
       </c>
       <c r="AH16" s="22">
         <f ca="1">W16+360</f>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="AI16" s="12" t="s">
         <v>101</v>
@@ -5249,7 +5248,7 @@
       </c>
       <c r="AT16" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AU16" s="10" t="s">
         <v>100</v>
@@ -5265,15 +5264,15 @@
       </c>
       <c r="AY16" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="AZ16" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>05/07/2024</v>
+        <v>09/07/2024</v>
       </c>
       <c r="BA16" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>45838</v>
+        <v>45842</v>
       </c>
       <c r="BB16" s="26" t="s">
         <v>81</v>
